--- a/Sign language/Remaing List.xlsx
+++ b/Sign language/Remaing List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laurentain university\My thesis\Sign language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5758D8C-CF60-4F60-95B3-5729EEAD15DE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6859F62-D82F-45E8-87B8-62A9985FF4CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5568" activeTab="2" xr2:uid="{2AE2CF2D-A513-4F67-9A3F-B569893E6E6D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5568" activeTab="4" xr2:uid="{2AE2CF2D-A513-4F67-9A3F-B569893E6E6D}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="23">
   <si>
     <t>D</t>
   </si>
@@ -454,127 +454,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA305A8-6436-4F5B-9E46-C7CBA6D244F3}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A23"/>
+      <selection activeCell="B15" sqref="B15:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -745,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C36F69-C321-4849-919C-30A1B64FBE41}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1060,115 +1129,169 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C56963-1C56-4F99-936B-7332A2E1EAD3}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
